--- a/Server/Config/Excel/Server/SceneConfig.xlsx
+++ b/Server/Config/Excel/Server/SceneConfig.xlsx
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -485,6 +485,9 @@
     <t>Chat服务器</t>
   </si>
   <si>
+    <t>TCP</t>
+  </si>
+  <si>
     <t>Authentication</t>
   </si>
   <si>
@@ -712,19 +715,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -738,8 +729,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -747,6 +744,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Tai Le"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1750,10 +1753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B8" s="10">
-        <f>B7+1</f>
+        <f t="shared" ref="B8:B11" si="0">B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="4">
@@ -2014,7 +2017,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B9" s="10">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="4">
@@ -2047,7 +2050,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B10" s="10">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="4">
@@ -2078,15 +2081,52 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" s="1" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>11005</v>
+      </c>
+      <c r="K11" s="4">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G11,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F7:F10">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G7:G10">
       <formula1>SceneTypeConfig!$B$3:$B$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H7:H10">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2142,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2180,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2189,10 +2229,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2201,10 +2241,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2213,10 +2253,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="1:3">

--- a/Server/Config/Excel/Server/SceneConfig.xlsx
+++ b/Server/Config/Excel/Server/SceneConfig.xlsx
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -488,6 +488,9 @@
     <t>TCP</t>
   </si>
   <si>
+    <t>HTTP</t>
+  </si>
+  <si>
     <t>Authentication</t>
   </si>
   <si>
@@ -722,28 +725,28 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Tai Le"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1753,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B8" s="10">
-        <f t="shared" ref="B8:B11" si="0">B7+1</f>
+        <f t="shared" ref="B8:B12" si="0">B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="4">
@@ -2118,15 +2121,55 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" s="1" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="4">
+        <v>20002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11006</v>
+      </c>
+      <c r="K12" s="4">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G12,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>9</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F7:F10">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12">
+      <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F12">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G7:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G12">
       <formula1>SceneTypeConfig!$B$3:$B$1048576</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H7:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10">
       <formula1>"None,KCP,TCP,WebSocket"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2141,10 +2184,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2182,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2213,14 +2256,14 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A10" si="0">A5+1</f>
+        <f t="shared" ref="A6:A11" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2229,10 +2272,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2241,10 +2284,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2253,10 +2296,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.75" spans="1:3">
@@ -2269,6 +2312,18 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
